--- a/results/council-workbook.xlsx
+++ b/results/council-workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="420" windowWidth="21500" windowHeight="21640" tabRatio="500"/>
+    <workbookView xWindow="23260" yWindow="2720" windowWidth="27280" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>raceid</t>
   </si>
@@ -39,24 +39,9 @@
     <t>votecount</t>
   </si>
   <si>
-    <t>precinctsreporting</t>
-  </si>
-  <si>
-    <t>precinctsreportingpct</t>
-  </si>
-  <si>
-    <t>precinctstotal</t>
-  </si>
-  <si>
     <t>winner</t>
   </si>
   <si>
-    <t>fipscode</t>
-  </si>
-  <si>
-    <t>lastupdated</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -66,33 +51,15 @@
     <t>Dem</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2016-10-14T17:37:06.740Z</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
   <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>ppp</t>
-  </si>
-  <si>
     <t>www</t>
   </si>
   <si>
     <t>aaa</t>
   </si>
   <si>
-    <t>vvv</t>
-  </si>
-  <si>
     <t>Rep</t>
   </si>
   <si>
@@ -133,13 +100,169 @@
   </si>
   <si>
     <t>Young</t>
+  </si>
+  <si>
+    <t>McDaniel</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Zeke</t>
+  </si>
+  <si>
+    <t>Choen</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Yarberough</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Dorsey</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>G. Andreas</t>
+  </si>
+  <si>
+    <t>Spiliadis</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Broaddus, III</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Middleton</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>White, Jr.</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Pinkett, III</t>
+  </si>
+  <si>
+    <t>Tamara</t>
+  </si>
+  <si>
+    <t>Purnell</t>
+  </si>
+  <si>
+    <t>Nnamdi</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Brown, Jr.</t>
+  </si>
+  <si>
+    <t>Burnett</t>
+  </si>
+  <si>
+    <t>Kristerfer</t>
+  </si>
+  <si>
+    <t>Bullock</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Ebron, Jr.</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Frierson</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Digman</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Reisinger</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Schlakman</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Sparaco</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Stokes, Sr.</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Sneed</t>
+  </si>
+  <si>
+    <t>Mary Pat</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +289,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +319,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -198,23 +333,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,19 +769,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,493 +799,844 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
+        <v>0.22</v>
+      </c>
+      <c r="F2">
+        <v>51756</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
         <v>0.41</v>
       </c>
-      <c r="F2">
-        <v>51756</v>
-      </c>
-      <c r="G2">
-        <v>142</v>
-      </c>
-      <c r="H2">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I2">
-        <v>294</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>0.61</v>
-      </c>
       <c r="F3">
-        <v>33333</v>
-      </c>
-      <c r="G3">
-        <v>142</v>
-      </c>
-      <c r="H3">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I3">
-        <v>294</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>11111</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4">
+        <v>0.22</v>
+      </c>
+      <c r="F4">
+        <v>51756</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
         <v>0.41</v>
       </c>
-      <c r="F4">
-        <v>51756</v>
-      </c>
-      <c r="G4">
-        <v>142</v>
-      </c>
-      <c r="H4">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I4">
-        <v>294</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="F5">
+        <v>11111</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0.22</v>
+      </c>
+      <c r="F6">
+        <v>51756</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0.41</v>
+      </c>
+      <c r="F7">
+        <v>11111</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0.22</v>
+      </c>
+      <c r="F8">
+        <v>51756</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F5">
-        <v>22222</v>
-      </c>
-      <c r="G5">
-        <v>142</v>
-      </c>
-      <c r="H5">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I5">
-        <v>294</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0.41</v>
-      </c>
-      <c r="F6">
-        <v>51756</v>
-      </c>
-      <c r="G6">
-        <v>142</v>
-      </c>
-      <c r="H6">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I6">
-        <v>294</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0.22</v>
-      </c>
-      <c r="F7">
-        <v>51756</v>
-      </c>
-      <c r="G7">
-        <v>142</v>
-      </c>
-      <c r="H7">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I7">
-        <v>294</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>0.41</v>
-      </c>
-      <c r="F8">
-        <v>11111</v>
-      </c>
-      <c r="G8">
-        <v>111</v>
-      </c>
-      <c r="H8">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I8">
-        <v>294</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>103</v>
-      </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0.41</v>
       </c>
       <c r="F9">
-        <v>51756</v>
-      </c>
-      <c r="G9">
-        <v>142</v>
-      </c>
-      <c r="H9">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I9">
-        <v>294</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+        <v>11111</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0.22</v>
+      </c>
+      <c r="F10">
+        <v>51756</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0.41</v>
+      </c>
+      <c r="F11">
+        <v>11111</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0.22</v>
+      </c>
+      <c r="F12">
+        <v>51756</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0.41</v>
+      </c>
+      <c r="F13">
+        <v>11111</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0.22</v>
+      </c>
+      <c r="F14">
+        <v>51756</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0.41</v>
+      </c>
+      <c r="F15">
+        <v>11111</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>106</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0.22</v>
+      </c>
+      <c r="F16">
+        <v>51756</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>0.41</v>
+      </c>
+      <c r="F17">
+        <v>11111</v>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0.22</v>
+      </c>
+      <c r="F18">
+        <v>51756</v>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="E19">
+        <v>0.41</v>
+      </c>
+      <c r="F19">
+        <v>11111</v>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>108</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0.22</v>
+      </c>
+      <c r="F20">
+        <v>51756</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>0.41</v>
+      </c>
+      <c r="F21">
+        <v>11111</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>0.22</v>
+      </c>
+      <c r="F22">
+        <v>51756</v>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0.41</v>
+      </c>
+      <c r="F23">
+        <v>11111</v>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>109</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>0.22</v>
+      </c>
+      <c r="F24">
+        <v>51756</v>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>110</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0.41</v>
+      </c>
+      <c r="F25">
+        <v>11111</v>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>110</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>0.22</v>
+      </c>
+      <c r="F26">
+        <v>51756</v>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>112</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="E27">
+        <v>0.41</v>
+      </c>
+      <c r="F27">
+        <v>11111</v>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>0.22</v>
+      </c>
+      <c r="F28">
+        <v>51756</v>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="E29">
+        <v>0.41</v>
+      </c>
+      <c r="F29">
+        <v>11111</v>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>0.22</v>
+      </c>
+      <c r="F30">
+        <v>51756</v>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0.41</v>
+      </c>
+      <c r="F31">
+        <v>11111</v>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>0.22</v>
+      </c>
+      <c r="F32">
+        <v>51756</v>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>114</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>0.41</v>
+      </c>
+      <c r="F33">
+        <v>11111</v>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E34">
+        <v>0.22</v>
+      </c>
+      <c r="F34">
+        <v>51756</v>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>0.22</v>
+      </c>
+      <c r="F39">
+        <v>51756</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
+      <c r="E40">
+        <v>0.41</v>
+      </c>
+      <c r="F40">
+        <v>11111</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/council-workbook.xlsx
+++ b/results/council-workbook.xlsx
@@ -319,8 +319,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,7 +385,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -412,6 +414,7 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -440,6 +443,7 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -772,7 +776,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -814,10 +818,10 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
-        <v>51756</v>
+        <v>1234567</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -837,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="F3">
-        <v>11111</v>
+        <v>123456</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -860,10 +864,10 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="F4">
-        <v>51756</v>
+        <v>12345</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -883,10 +887,10 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>11111</v>
+        <v>1234</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -906,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>51756</v>
+        <v>123</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -929,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
-        <v>11111</v>
+        <v>12345</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -952,10 +956,10 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="F8">
-        <v>51756</v>
+        <v>123</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -975,10 +979,10 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>0.41</v>
+        <v>0.7</v>
       </c>
       <c r="F9">
-        <v>11111</v>
+        <v>123678</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -998,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>51756</v>
+        <v>123</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1021,10 +1025,10 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="F11">
-        <v>11111</v>
+        <v>56789</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1044,10 +1048,10 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="F12">
-        <v>51756</v>
+        <v>123</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1067,10 +1071,10 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F13">
-        <v>11111</v>
+        <v>469</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1090,10 +1094,10 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="F14">
-        <v>51756</v>
+        <v>136</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1116,7 +1120,7 @@
         <v>0.41</v>
       </c>
       <c r="F15">
-        <v>11111</v>
+        <v>56789</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1136,13 +1140,13 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.22</v>
+        <v>0.59</v>
       </c>
       <c r="F16">
-        <v>51756</v>
+        <v>987</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1159,10 +1163,10 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F17">
-        <v>11111</v>
+        <v>345</v>
       </c>
       <c r="G17" s="2" t="b">
         <v>0</v>
@@ -1182,10 +1186,10 @@
         <v>13</v>
       </c>
       <c r="E18">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
-        <v>51756</v>
+        <v>567</v>
       </c>
       <c r="G18" s="2" t="b">
         <v>0</v>
@@ -1205,10 +1209,10 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F19">
-        <v>11111</v>
+        <v>765</v>
       </c>
       <c r="G19" s="2" t="b">
         <v>0</v>
@@ -1228,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="E20">
-        <v>0.22</v>
+        <v>0.8</v>
       </c>
       <c r="F20">
         <v>51756</v>
@@ -1251,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="F21">
-        <v>11111</v>
+        <v>434433</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1274,10 +1278,10 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
-        <v>51756</v>
+        <v>434343</v>
       </c>
       <c r="G22" s="2" t="b">
         <v>0</v>
@@ -1297,10 +1301,10 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F23">
-        <v>11111</v>
+        <v>434343</v>
       </c>
       <c r="G23" s="2" t="b">
         <v>0</v>
@@ -1320,10 +1324,10 @@
         <v>14</v>
       </c>
       <c r="E24">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="F24">
-        <v>51756</v>
+        <v>434</v>
       </c>
       <c r="G24" s="2" t="b">
         <v>0</v>
@@ -1343,10 +1347,10 @@
         <v>13</v>
       </c>
       <c r="E25">
-        <v>0.41</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F25">
-        <v>11111</v>
+        <v>7658</v>
       </c>
       <c r="G25" s="2" t="b">
         <v>0</v>
@@ -1366,10 +1370,10 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="F26">
-        <v>51756</v>
+        <v>874678</v>
       </c>
       <c r="G26" s="2" t="b">
         <v>0</v>
@@ -1389,13 +1393,13 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F27">
-        <v>11111</v>
+        <v>232323</v>
       </c>
       <c r="G27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,10 +1416,10 @@
         <v>14</v>
       </c>
       <c r="E28">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
-        <v>51756</v>
+        <v>4564</v>
       </c>
       <c r="G28" s="2" t="b">
         <v>0</v>
@@ -1435,10 +1439,10 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="F29">
-        <v>11111</v>
+        <v>5456</v>
       </c>
       <c r="G29" s="2" t="b">
         <v>0</v>
@@ -1458,10 +1462,10 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
-        <v>51756</v>
+        <v>5455</v>
       </c>
       <c r="G30" s="2" t="b">
         <v>0</v>
@@ -1481,10 +1485,10 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="F31">
-        <v>11111</v>
+        <v>45454</v>
       </c>
       <c r="G31" s="2" t="b">
         <v>0</v>
@@ -1504,10 +1508,10 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>0.22</v>
+        <v>0.8</v>
       </c>
       <c r="F32">
-        <v>51756</v>
+        <v>45454</v>
       </c>
       <c r="G32" s="2" t="b">
         <v>0</v>
@@ -1527,10 +1531,10 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>0.41</v>
+        <v>0.9</v>
       </c>
       <c r="F33">
-        <v>11111</v>
+        <v>6666</v>
       </c>
       <c r="G33" s="2" t="b">
         <v>0</v>
@@ -1550,10 +1554,10 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="F34">
-        <v>51756</v>
+        <v>443</v>
       </c>
       <c r="G34" s="2" t="b">
         <v>0</v>

--- a/results/council-workbook.xlsx
+++ b/results/council-workbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="3140" windowWidth="27280" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="24040" yWindow="2660" windowWidth="27280" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Zeke</t>
   </si>
   <si>
-    <t>Choen</t>
-  </si>
-  <si>
     <t>Brandon</t>
   </si>
   <si>
@@ -249,26 +246,28 @@
     <t>Mary Pat</t>
   </si>
   <si>
-    <t>Clark</t>
-  </si>
-  <si>
     <t>Harding</t>
   </si>
   <si>
     <t>David</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Cohen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,6 +300,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -319,7 +323,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -387,13 +391,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -427,6 +451,15 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -460,6 +493,15 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -792,7 +834,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G34"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -820,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2">
         <v>100</v>
       </c>
@@ -834,16 +876,16 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>0.04</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7332</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3">
         <v>100</v>
       </c>
@@ -857,16 +899,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5722</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4">
         <v>100</v>
       </c>
@@ -880,16 +922,16 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10036</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5">
         <v>100</v>
       </c>
@@ -903,16 +945,16 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>24736</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6">
         <v>100</v>
       </c>
@@ -926,16 +968,16 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>0.76</v>
+      </c>
+      <c r="F6" s="3">
+        <v>154158</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7">
         <v>101</v>
       </c>
@@ -943,22 +985,22 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>0.67</v>
+      </c>
+      <c r="F7" s="3">
+        <v>11491</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8">
         <v>101</v>
       </c>
@@ -972,154 +1014,154 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5722</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9">
         <v>102</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12116</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1372</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>0.86</v>
+      </c>
+      <c r="F11" s="3">
+        <v>13383</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12">
         <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2134</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13">
         <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1939</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14">
         <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>0.89</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14646</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15">
         <v>106</v>
       </c>
@@ -1127,160 +1169,160 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>0.91</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12481</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16">
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+        <v>0.08</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1144</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="2">
         <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+        <v>0.83</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11667</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="2">
         <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1346</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="2">
         <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1030</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20">
         <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+        <v>0.08</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1354</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="17">
       <c r="A21">
         <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.91</v>
+      </c>
+      <c r="F21" s="3">
+        <v>14863</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="2">
         <v>109</v>
       </c>
@@ -1288,229 +1330,229 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+        <v>0.92</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10279</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="2">
         <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+        <v>0.04</v>
+      </c>
+      <c r="F23" s="4">
+        <v>473</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="2">
         <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" s="4">
+        <v>364</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="2">
         <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1993</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="2">
         <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+        <v>0.78</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7560</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="2">
         <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="4">
+        <v>529</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="2">
         <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+        <v>0.13</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1483</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="2">
         <v>112</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+        <v>0.11</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1305</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="17">
       <c r="A30" s="2">
         <v>112</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+        <v>0.71</v>
+      </c>
+      <c r="F30" s="3">
+        <v>8113</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="17">
       <c r="A31" s="2">
         <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>0.06</v>
+      </c>
+      <c r="F31" s="4">
+        <v>752</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="2">
         <v>113</v>
       </c>
@@ -1518,62 +1560,62 @@
         <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+        <v>0.93</v>
+      </c>
+      <c r="F32" s="3">
+        <v>11049</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="2">
         <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+        <v>0.92</v>
+      </c>
+      <c r="F33" s="3">
+        <v>13823</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="2">
         <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
+        <v>0.08</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1249</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>

--- a/results/council-workbook.xlsx
+++ b/results/council-workbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24040" yWindow="2660" windowWidth="27280" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,6 +268,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,8 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -417,7 +420,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -460,6 +463,7 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -502,6 +506,7 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -834,7 +839,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection sqref="A1:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -974,7 +979,7 @@
         <v>154158</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17">
@@ -997,7 +1002,7 @@
         <v>11491</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17">
@@ -1043,7 +1048,7 @@
         <v>12116</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17">
@@ -1089,7 +1094,7 @@
         <v>13383</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17">
@@ -1152,13 +1157,13 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F14" s="3">
         <v>14646</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17">
@@ -1175,13 +1180,13 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="3">
         <v>12481</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17">
@@ -1227,7 +1232,7 @@
         <v>11667</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17">
@@ -1319,7 +1324,7 @@
         <v>14863</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17">
@@ -1342,7 +1347,7 @@
         <v>10279</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17">
@@ -1434,7 +1439,7 @@
         <v>7560</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17">
@@ -1526,7 +1531,7 @@
         <v>8113</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17">
@@ -1572,7 +1577,7 @@
         <v>11049</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17">
@@ -1589,13 +1594,13 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F33" s="3">
         <v>13823</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17">
